--- a/edit/crosscheck.xlsx
+++ b/edit/crosscheck.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="201">
   <si>
     <t>Nombre</t>
   </si>
@@ -274,21 +274,12 @@
     <t>Dificultades de financiacion</t>
   </si>
   <si>
-    <t>Escases de recursos</t>
-  </si>
-  <si>
     <t>Obstaculos recursos</t>
   </si>
   <si>
     <t>Obstaculos legales/personal</t>
   </si>
   <si>
-    <t>Apoyo publico</t>
-  </si>
-  <si>
-    <t>Falta informacion instrumentos publicos, mercados o tecnologia</t>
-  </si>
-  <si>
     <t>Baja cultura innovadora</t>
   </si>
   <si>
@@ -325,9 +316,6 @@
     <t>Potenciales imitaciones</t>
   </si>
   <si>
-    <t>Rentabilidad incierta</t>
-  </si>
-  <si>
     <t>Financiamiento Publico</t>
   </si>
   <si>
@@ -340,9 +328,6 @@
     <t>Cumplimiento de requisitos</t>
   </si>
   <si>
-    <t>Regulaciones</t>
-  </si>
-  <si>
     <t>Bonos gerenciales? 1=Si</t>
   </si>
   <si>
@@ -470,6 +455,168 @@
   </si>
   <si>
     <t>Total ACTI</t>
+  </si>
+  <si>
+    <t>EDIT Tiene de los que estan en ACTI, EAM de pronto tiene mas</t>
+  </si>
+  <si>
+    <t>IV4R4C3/Total</t>
+  </si>
+  <si>
+    <t>IV4R6C3/Total</t>
+  </si>
+  <si>
+    <t>(IV4R5C3 + IV4R2C3 + IV4R1C3)/Total</t>
+  </si>
+  <si>
+    <t>IV4R3C3/Total</t>
+  </si>
+  <si>
+    <t>III1R1C1 + III1R1C2</t>
+  </si>
+  <si>
+    <t>No se puede desagregar x trabajador. Mas bien =1 si emplea mujeres? O Hacer ratio de mujeres en cada division</t>
+  </si>
+  <si>
+    <t>III1R2C1 + III1R2C2</t>
+  </si>
+  <si>
+    <t>III1R3C1 + III1R3C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">III1R4C1 + III1R4C2 + III1R4C3 + III1R4C4 </t>
+  </si>
+  <si>
+    <t>III1R5C1 + III1R5C2 + III1R5C3 + III1R5C4</t>
+  </si>
+  <si>
+    <t>Otras Empresas</t>
+  </si>
+  <si>
+    <t>Otras fuentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">III1R6C1 + III1R6C2 + III1R6C3 + III1R6C4 +  III1R7C1 + III1R7C2 + III1R7C3 + III1R7C4 </t>
+  </si>
+  <si>
+    <t>Ampliar info</t>
+  </si>
+  <si>
+    <t>V2R2C1 == 1</t>
+  </si>
+  <si>
+    <t>V2R1C1 == 1</t>
+  </si>
+  <si>
+    <t>V2R3C1 == 1</t>
+  </si>
+  <si>
+    <t>V2R4C1 == 1</t>
+  </si>
+  <si>
+    <t>V2R17C1 == 1</t>
+  </si>
+  <si>
+    <t>V3R5C1 == 1</t>
+  </si>
+  <si>
+    <t>V2R15C1 == 1</t>
+  </si>
+  <si>
+    <t>V2R7C1 == 1 Ojo no discrimina por publicas</t>
+  </si>
+  <si>
+    <t>No veo</t>
+  </si>
+  <si>
+    <t>No veo pero hay workaround con III2R1C1 &gt; 0 | III2R1C2 &gt; 0</t>
+  </si>
+  <si>
+    <t>Escases de recursos propios</t>
+  </si>
+  <si>
+    <t>I10R1C1 == 1 | I10R1C1 == 2</t>
+  </si>
+  <si>
+    <t>I10R10C1 == 1 | I10R10C1 == 2</t>
+  </si>
+  <si>
+    <t>I10R12C1 == 1 | I10R12C1 == 2</t>
+  </si>
+  <si>
+    <t>I10R7C1 == 1 | I10R7C1 == 2</t>
+  </si>
+  <si>
+    <t>I10R8C1 == 1 | I10R8C1 == 2</t>
+  </si>
+  <si>
+    <t>I10R11C1 == 1 | I10R11C1 == 2</t>
+  </si>
+  <si>
+    <t>III4R6C1 == 1 | III4R6C1 == 2</t>
+  </si>
+  <si>
+    <t>III4R3C1 == 1 | III4R3C1 == 2</t>
+  </si>
+  <si>
+    <t>I10R3C1 == 1 | I10R3C1 == 2</t>
+  </si>
+  <si>
+    <t>I10R6C1 == 1 | I10R6C1 == 2</t>
+  </si>
+  <si>
+    <t>I10R14C1 == 1 | I10R14C1 == 2</t>
+  </si>
+  <si>
+    <t>I10R13C1 == 1 | I10R13C1 == 2</t>
+  </si>
+  <si>
+    <t>III4R4C1 == 1 | III4R4C1 == 2</t>
+  </si>
+  <si>
+    <t>Frente a rentabilidad</t>
+  </si>
+  <si>
+    <t>Condiciones de financiacion poco atractivas</t>
+  </si>
+  <si>
+    <t>III4R5C1 == 1 | III4R5C1 == 2</t>
+  </si>
+  <si>
+    <t>I10R2C1 == 1 | I10R2C1 == 2</t>
+  </si>
+  <si>
+    <t>Else de todo lo demas</t>
+  </si>
+  <si>
+    <t>(I10R4C1 == 1 | I10R4C1 == 2) &amp; (I10R5C1 == 1 | I10R5C1 == 2)</t>
+  </si>
+  <si>
+    <t>Falta de informacion sobre apoyo publico</t>
+  </si>
+  <si>
+    <t>Falta informacion mercados o tecnologia</t>
+  </si>
+  <si>
+    <t>I10R9C1 == 1 | I10R9C1 == 2</t>
+  </si>
+  <si>
+    <t>VIII12R5C1 != 1</t>
+  </si>
+  <si>
+    <t>VIII14R5C1 != 1</t>
+  </si>
+  <si>
+    <t>VIII16R1C1 != 4</t>
+  </si>
+  <si>
+    <t>VIII17R1C1 != 4</t>
+  </si>
+  <si>
+    <t>VIII9R1C1 !=4</t>
+  </si>
+  <si>
+    <t>VIII5R1C1 != 5</t>
   </si>
 </sst>
 </file>
@@ -641,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -654,7 +801,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -665,25 +863,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -692,53 +878,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,38 +1190,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14" style="21" customWidth="1"/>
+    <col min="5" max="5" width="14" style="14" customWidth="1"/>
     <col min="6" max="7" width="15.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:9" ht="26.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1085,16 +1229,16 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
@@ -1102,204 +1246,204 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="11"/>
+      <c r="E4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="11"/>
+      <c r="E5" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="7"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="5"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="31"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="7"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="32"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="10"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="11"/>
+        <v>133</v>
+      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="5"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="5"/>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="28"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="11"/>
+      <c r="E13" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="5"/>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="11"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="11"/>
+      <c r="C15" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C16" s="5"/>
-      <c r="D16" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="11"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="5"/>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="5"/>
-      <c r="D18" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="11"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
@@ -1307,189 +1451,189 @@
       <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="11"/>
+      <c r="E19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="11"/>
+      <c r="F20" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C21" s="5"/>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="11"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="7"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C22" s="5"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="11"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="G23" s="7"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="5"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="5"/>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="31"/>
+      <c r="D26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="5"/>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="31"/>
+      <c r="D27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="11"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="31"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="3:9" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="7"/>
-      <c r="D29" s="12">
+      <c r="C29" s="24"/>
+      <c r="D29" s="8">
         <v>10</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29" s="29"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="32"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C30" s="7"/>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="G30" s="29"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="32"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C31" s="7"/>
-      <c r="D31" s="12" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="29"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="32"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C32" s="8"/>
-      <c r="D32" s="12" t="s">
+      <c r="C32" s="25"/>
+      <c r="D32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="29"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="32"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
@@ -1497,14 +1641,16 @@
       <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" s="11"/>
+      <c r="E33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="7"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
@@ -1512,73 +1658,77 @@
       <c r="C34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="11"/>
+      <c r="E34" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="7"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="F35" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="11"/>
+        <v>136</v>
+      </c>
+      <c r="G35" s="7"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C36" s="5"/>
-      <c r="D36" s="12" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="27"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C37" s="5"/>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="31"/>
+      <c r="D37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="11"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="5"/>
-      <c r="D38" s="12" t="s">
+      <c r="C38" s="31"/>
+      <c r="D38" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="9"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C39" s="5"/>
-      <c r="D39" s="12" t="s">
+      <c r="C39" s="31"/>
+      <c r="D39" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="28"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="7"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
@@ -1586,14 +1736,16 @@
       <c r="C40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G40" s="11"/>
+      <c r="E40" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" s="7"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
@@ -1601,14 +1753,16 @@
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="11"/>
+      <c r="E41" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="7"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
@@ -1616,14 +1770,16 @@
       <c r="C42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" s="11"/>
+      <c r="E42" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="7"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
@@ -1631,14 +1787,16 @@
       <c r="C43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="11"/>
+      <c r="E43" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="7"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
@@ -1646,674 +1804,785 @@
       <c r="C44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="11"/>
+      <c r="E44" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="7"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="G45" s="11"/>
+      <c r="D45" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="7"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C46" s="8"/>
-      <c r="D46" s="12" t="s">
+      <c r="C46" s="25"/>
+      <c r="D46" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G46" s="11"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="7"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C47" s="6" t="s">
+    <row r="47" spans="3:9" ht="60.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="11"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="7"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C48" s="7"/>
-      <c r="D48" s="12" t="s">
+      <c r="C48" s="24"/>
+      <c r="D48" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="11"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C49" s="8"/>
-      <c r="D49" s="12" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="11"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="3:9" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="C50" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="11"/>
+      <c r="E50" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" s="7"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C51" s="5"/>
-      <c r="D51" s="12" t="s">
+      <c r="C51" s="31"/>
+      <c r="D51" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="11"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" s="7"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C52" s="5"/>
-      <c r="D52" s="12" t="s">
+    <row r="52" spans="3:9" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="C52" s="31"/>
+      <c r="D52" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="11"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="7"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C53" s="5"/>
-      <c r="D53" s="12" t="s">
+      <c r="C53" s="31"/>
+      <c r="D53" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="11"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="7"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:9" ht="105.4" x14ac:dyDescent="0.3">
       <c r="C54" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="11"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="7"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C55" s="5" t="s">
+    <row r="55" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C55" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="11"/>
+      <c r="E55" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55" s="7"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C56" s="5"/>
-      <c r="D56" s="12" t="s">
+    <row r="56" spans="3:9" ht="60.25" x14ac:dyDescent="0.3">
+      <c r="C56" s="31"/>
+      <c r="D56" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="11"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="7"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C57" s="5"/>
-      <c r="D57" s="12" t="s">
+    <row r="57" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C57" s="31"/>
+      <c r="D57" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="11"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G57" s="7"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C58" s="5"/>
-      <c r="D58" s="12" t="s">
+    <row r="58" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C58" s="31"/>
+      <c r="D58" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="11"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="7"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="5"/>
-      <c r="D59" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="11"/>
+    <row r="59" spans="3:9" ht="60.25" x14ac:dyDescent="0.3">
+      <c r="C59" s="31"/>
+      <c r="D59" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" s="7"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C60" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="11"/>
+    <row r="60" spans="3:9" ht="120.45" x14ac:dyDescent="0.3">
+      <c r="C60" s="31"/>
+      <c r="D60" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" s="7"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="3:9" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="11"/>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C61" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" s="7"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C62" s="5"/>
-      <c r="D62" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="11"/>
+    <row r="62" spans="3:9" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G62" s="7"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C63" s="5"/>
-      <c r="D63" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="11"/>
+    <row r="63" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C63" s="31"/>
+      <c r="D63" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G63" s="7"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C64" s="5"/>
-      <c r="D64" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="11"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G64" s="7"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C65" s="5"/>
-      <c r="D65" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="11"/>
+    <row r="65" spans="3:9" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="C65" s="31"/>
+      <c r="D65" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G65" s="7"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C66" s="5"/>
-      <c r="D66" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="11"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G66" s="7"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C67" s="5"/>
-      <c r="D67" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="11"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G67" s="7"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C68" s="5"/>
-      <c r="D68" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="11"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G68" s="7"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C69" s="5"/>
-      <c r="D69" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="11"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G69" s="7"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C70" s="5"/>
-      <c r="D70" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="11"/>
+    <row r="70" spans="3:9" ht="60.25" x14ac:dyDescent="0.3">
+      <c r="C70" s="31"/>
+      <c r="D70" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G70" s="7"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C71" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="11"/>
+    <row r="71" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C71" s="31"/>
+      <c r="D71" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" s="7"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C72" s="7"/>
-      <c r="D72" s="12" t="s">
+      <c r="C72" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="11"/>
+      <c r="D72" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G72" s="7"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
     <row r="73" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C73" s="7"/>
-      <c r="D73" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="11"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="24"/>
+      <c r="F73" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G73" s="7"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C74" s="8"/>
-      <c r="D74" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="11"/>
+    <row r="74" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C74" s="24"/>
+      <c r="D74" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="24"/>
+      <c r="F74" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G74" s="7"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C75" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="11"/>
+    <row r="75" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C75" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G75" s="7"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="3:9" ht="45.2" x14ac:dyDescent="0.3">
-      <c r="C76" s="7"/>
-      <c r="D76" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="11"/>
+    <row r="76" spans="3:9" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="24"/>
+      <c r="D76" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E76" s="24"/>
+      <c r="F76" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G76" s="7"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C77" s="7"/>
-      <c r="D77" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="11"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E77" s="24"/>
+      <c r="F77" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G77" s="7"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C78" s="7"/>
-      <c r="D78" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="11"/>
+    <row r="78" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C78" s="24"/>
+      <c r="D78" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" s="24"/>
+      <c r="F78" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G78" s="7"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
     <row r="79" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C79" s="7"/>
-      <c r="D79" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="11"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G79" s="7"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
     <row r="80" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C80" s="7"/>
-      <c r="D80" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="11"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G80" s="7"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C81" s="7"/>
-      <c r="D81" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="11"/>
+    <row r="81" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C81" s="24"/>
+      <c r="D81" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" s="7"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C82" s="7"/>
-      <c r="D82" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="11"/>
+    <row r="82" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C82" s="24"/>
+      <c r="D82" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G82" s="7"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C83" s="7"/>
-      <c r="D83" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="11"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G83" s="7"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C84" s="7"/>
-      <c r="D84" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="11"/>
+    <row r="84" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C84" s="24"/>
+      <c r="D84" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E84" s="24"/>
+      <c r="F84" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G84" s="7"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C85" s="7"/>
-      <c r="D85" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="11"/>
+    <row r="85" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C85" s="24"/>
+      <c r="D85" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G85" s="7"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
     </row>
     <row r="86" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C86" s="7"/>
-      <c r="D86" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="11"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" s="24"/>
+      <c r="F86" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G86" s="7"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C87" s="7"/>
-      <c r="D87" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="11"/>
+    <row r="87" spans="3:9" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="C87" s="24"/>
+      <c r="D87" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E87" s="24"/>
+      <c r="F87" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G87" s="7"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C88" s="8"/>
-      <c r="D88" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="11"/>
+    <row r="88" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C88" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G88" s="7"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C89" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="11"/>
+    <row r="89" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C89" s="24"/>
+      <c r="D89" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" s="24"/>
+      <c r="F89" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G89" s="7"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C90" s="7"/>
-      <c r="D90" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="11"/>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C90" s="24"/>
+      <c r="D90" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="24"/>
+      <c r="F90" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G90" s="7"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C91" s="7"/>
-      <c r="D91" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="11"/>
+    <row r="91" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C91" s="24"/>
+      <c r="D91" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" s="24"/>
+      <c r="F91" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G91" s="7"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C92" s="7"/>
-      <c r="D92" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="11"/>
+    <row r="92" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C92" s="24"/>
+      <c r="D92" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" s="24"/>
+      <c r="F92" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G92" s="7"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C93" s="8"/>
-      <c r="D93" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="11"/>
+    <row r="93" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C93" s="25"/>
+      <c r="D93" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E93" s="25"/>
+      <c r="F93" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G93" s="7"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C94" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="11"/>
+      <c r="C94" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G94" s="7"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
     </row>
     <row r="95" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C95" s="5"/>
-      <c r="D95" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="11"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E95" s="24"/>
+      <c r="F95" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G95" s="7"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C96" s="5"/>
-      <c r="D96" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="11"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E96" s="24"/>
+      <c r="F96" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G96" s="7"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
     </row>
     <row r="97" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C97" s="5"/>
-      <c r="D97" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="11"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E97" s="24"/>
+      <c r="F97" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G97" s="7"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C98" s="5"/>
-      <c r="D98" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E98" s="9"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="11"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="24"/>
+      <c r="F98" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G98" s="7"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
     </row>
     <row r="99" spans="3:9" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C99" s="5"/>
-      <c r="D99" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E99" s="20"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="11"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="25"/>
+      <c r="F99" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G99" s="7"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E100" s="33"/>
+      <c r="E100" s="22"/>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E101" s="33"/>
+      <c r="E101" s="22"/>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E102" s="33"/>
+      <c r="E102" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="C55:C59"/>
+  <mergeCells count="34">
+    <mergeCell ref="E94:E99"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E72:E93"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C87"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="C55:C60"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C14"/>
@@ -2324,11 +2593,18 @@
     <mergeCell ref="C35:C39"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C61:C70"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="C75:C88"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E20:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
